--- a/python_worksheets.xlsx
+++ b/python_worksheets.xlsx
@@ -17,12 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
   <si>
     <t>transactions</t>
   </si>
   <si>
-    <t>QTY</t>
+    <t>qty</t>
   </si>
   <si>
     <t>all_sessions</t>
@@ -31,13 +31,13 @@
     <t>user_sessions</t>
   </si>
   <si>
-    <t>ECR</t>
+    <t>ecr</t>
   </si>
   <si>
     <t>month</t>
   </si>
   <si>
-    <t>dim_deviceCategory</t>
+    <t>device_category</t>
   </si>
   <si>
     <t>2012-07</t>
@@ -91,7 +91,10 @@
     <t>relative_dif</t>
   </si>
   <si>
-    <t>addsToCart</t>
+    <t>metric</t>
+  </si>
+  <si>
+    <t>adds_to_cart</t>
   </si>
   <si>
     <t>weekday</t>
@@ -121,7 +124,7 @@
     <t>browser_in_user_sessions</t>
   </si>
   <si>
-    <t>dim_browser</t>
+    <t>browser</t>
   </si>
   <si>
     <t>Safari</t>
@@ -1487,6 +1490,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1587,7 +1593,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>107970</v>
@@ -1617,7 +1623,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1637,7 +1643,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>28.91363636363636</v>
@@ -1657,7 +1663,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>28.67738883632923</v>
@@ -1677,7 +1683,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>31.91727272727273</v>
@@ -1697,7 +1703,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>33.47735507246377</v>
@@ -1717,7 +1723,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>33.60964513193812</v>
@@ -1737,7 +1743,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>37.88531711555169</v>
@@ -1757,7 +1763,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>31.10151380231523</v>
@@ -1790,36 +1796,36 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
+        <v>140847</v>
+      </c>
+      <c r="C2">
+        <v>263776</v>
+      </c>
+      <c r="D2">
         <v>5952256</v>
-      </c>
-      <c r="C2">
-        <v>140847</v>
-      </c>
-      <c r="D2">
-        <v>263776</v>
       </c>
       <c r="E2">
         <v>0.02366279272934498</v>
@@ -1830,16 +1836,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
+        <v>66247</v>
+      </c>
+      <c r="C3">
+        <v>125468</v>
+      </c>
+      <c r="D3">
         <v>2527254</v>
-      </c>
-      <c r="C3">
-        <v>66247</v>
-      </c>
-      <c r="D3">
-        <v>125468</v>
       </c>
       <c r="E3">
         <v>0.02621303596710105</v>
@@ -1850,16 +1856,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
+        <v>3046</v>
+      </c>
+      <c r="C4">
+        <v>5113</v>
+      </c>
+      <c r="D4">
         <v>518573</v>
-      </c>
-      <c r="C4">
-        <v>3046</v>
-      </c>
-      <c r="D4">
-        <v>5113</v>
       </c>
       <c r="E4">
         <v>0.005873811401673438</v>
@@ -1870,16 +1876,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
+        <v>17376</v>
+      </c>
+      <c r="C5">
+        <v>31279</v>
+      </c>
+      <c r="D5">
         <v>495779</v>
-      </c>
-      <c r="C5">
-        <v>17376</v>
-      </c>
-      <c r="D5">
-        <v>31279</v>
       </c>
       <c r="E5">
         <v>0.03504787415360473</v>
@@ -1890,16 +1896,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
+        <v>14373</v>
+      </c>
+      <c r="C6">
+        <v>11016</v>
+      </c>
+      <c r="D6">
         <v>469325</v>
-      </c>
-      <c r="C6">
-        <v>14373</v>
-      </c>
-      <c r="D6">
-        <v>11016</v>
       </c>
       <c r="E6">
         <v>0.0306248335375273</v>
@@ -1910,16 +1916,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
+        <v>6338</v>
+      </c>
+      <c r="C7">
+        <v>11814</v>
+      </c>
+      <c r="D7">
         <v>246329</v>
-      </c>
-      <c r="C7">
-        <v>6338</v>
-      </c>
-      <c r="D7">
-        <v>11814</v>
       </c>
       <c r="E7">
         <v>0.0257298166273561</v>
@@ -1930,16 +1936,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
+        <v>289</v>
+      </c>
+      <c r="C8">
+        <v>406</v>
+      </c>
+      <c r="D8">
         <v>98408</v>
-      </c>
-      <c r="C8">
-        <v>289</v>
-      </c>
-      <c r="D8">
-        <v>406</v>
       </c>
       <c r="E8">
         <v>0.002936753109503293</v>
@@ -1950,16 +1956,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
+        <v>456</v>
+      </c>
+      <c r="C9">
+        <v>774</v>
+      </c>
+      <c r="D9">
         <v>56632</v>
-      </c>
-      <c r="C9">
-        <v>456</v>
-      </c>
-      <c r="D9">
-        <v>774</v>
       </c>
       <c r="E9">
         <v>0.008051984743607854</v>
@@ -1970,16 +1976,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
+        <v>524</v>
+      </c>
+      <c r="C10">
+        <v>836</v>
+      </c>
+      <c r="D10">
         <v>35379</v>
-      </c>
-      <c r="C10">
-        <v>524</v>
-      </c>
-      <c r="D10">
-        <v>836</v>
       </c>
       <c r="E10">
         <v>0.01481104610079426</v>
@@ -1990,16 +1996,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>227</v>
+      </c>
+      <c r="D11">
         <v>5695</v>
-      </c>
-      <c r="C11">
-        <v>100</v>
-      </c>
-      <c r="D11">
-        <v>227</v>
       </c>
       <c r="E11">
         <v>0.01755926251097454</v>
@@ -2010,16 +2016,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
         <v>3865</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
       </c>
       <c r="E12">
         <v>0.001552393272962484</v>
@@ -2030,16 +2036,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>2359</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2050,16 +2056,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
         <v>2319</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>8</v>
       </c>
       <c r="E14">
         <v>0.00301854247520483</v>
@@ -2070,16 +2076,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>1225</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2090,16 +2096,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>86</v>
+      </c>
+      <c r="D16">
         <v>829</v>
-      </c>
-      <c r="C16">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>86</v>
       </c>
       <c r="E16">
         <v>0.03498190591073583</v>
@@ -2110,16 +2116,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>491</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2130,16 +2136,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>387</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2150,16 +2156,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19">
-        <v>372</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>372</v>
       </c>
       <c r="E19">
         <v>0.008064516129032258</v>
@@ -2170,16 +2176,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
         <v>272</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
       </c>
       <c r="E20">
         <v>0.007352941176470588</v>
@@ -2190,16 +2196,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
         <v>255</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
       </c>
       <c r="E21">
         <v>0.01176470588235294</v>
@@ -2210,16 +2216,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
         <v>208</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <v>6</v>
       </c>
       <c r="E22">
         <v>0.02403846153846154</v>
@@ -2230,16 +2236,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>133</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2250,16 +2256,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
         <v>131</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2270,16 +2276,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>117</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2290,16 +2296,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>101</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2310,16 +2316,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="C27">
         <v>4</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="E27">
         <v>0.05633802816901409</v>
@@ -2330,16 +2336,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
         <v>28</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2350,16 +2356,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
         <v>18</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2370,16 +2376,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
         <v>17</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2390,16 +2396,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
         <v>17</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2410,16 +2416,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
         <v>13</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2430,16 +2436,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
         <v>12</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2450,16 +2456,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
         <v>6</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2470,16 +2476,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
         <v>4</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2490,16 +2496,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
         <v>4</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2510,16 +2516,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
         <v>4</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2530,16 +2536,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
         <v>3</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2550,16 +2556,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
         <v>2</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2570,16 +2576,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>2</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2590,16 +2596,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
         <v>2</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2610,16 +2616,16 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
         <v>2</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2630,16 +2636,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
         <v>2</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2650,16 +2656,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
         <v>2</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2670,16 +2676,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
         <v>2</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2690,16 +2696,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
         <v>2</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2710,16 +2716,16 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2730,16 +2736,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2750,16 +2756,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2770,16 +2776,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2790,16 +2796,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2810,16 +2816,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2830,7 +2836,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2847,7 +2853,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2864,7 +2870,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2881,7 +2887,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2898,7 +2904,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2915,7 +2921,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B58">
         <v>0</v>

--- a/python_worksheets.xlsx
+++ b/python_worksheets.xlsx
@@ -100,25 +100,25 @@
     <t>weekday</t>
   </si>
   <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
     <t>Sun</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>Tue</t>
-  </si>
-  <si>
-    <t>Wed</t>
-  </si>
-  <si>
-    <t>Thu</t>
-  </si>
-  <si>
-    <t>Fri</t>
-  </si>
-  <si>
-    <t>Sat</t>
   </si>
   <si>
     <t>browser_in_user_sessions</t>
@@ -699,10 +699,10 @@
         <v>335429</v>
       </c>
       <c r="F2">
-        <v>335122</v>
+        <v>335119</v>
       </c>
       <c r="G2">
-        <v>0.03193165474066161</v>
+        <v>0.03193194059423667</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -764,10 +764,10 @@
         <v>392079</v>
       </c>
       <c r="F5">
-        <v>391559</v>
+        <v>391557</v>
       </c>
       <c r="G5">
-        <v>0.03297587336774279</v>
+        <v>0.03297604180234295</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -785,10 +785,10 @@
         <v>275556</v>
       </c>
       <c r="F6">
-        <v>275518</v>
+        <v>275513</v>
       </c>
       <c r="G6">
-        <v>0.01148745272541177</v>
+        <v>0.01148766119929005</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -829,10 +829,10 @@
         <v>272771</v>
       </c>
       <c r="F8">
-        <v>272580</v>
+        <v>272574</v>
       </c>
       <c r="G8">
-        <v>0.0326436275588818</v>
+        <v>0.03264434612252086</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -850,10 +850,10 @@
         <v>220689</v>
       </c>
       <c r="F9">
-        <v>220664</v>
+        <v>220660</v>
       </c>
       <c r="G9">
-        <v>0.01079016060617047</v>
+        <v>0.01079035620411493</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -871,10 +871,10 @@
         <v>169193</v>
       </c>
       <c r="F10">
-        <v>169189</v>
+        <v>169187</v>
       </c>
       <c r="G10">
-        <v>0.02588229731247303</v>
+        <v>0.02588260327330114</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -894,10 +894,10 @@
         <v>302682</v>
       </c>
       <c r="F11">
-        <v>302496</v>
+        <v>302484</v>
       </c>
       <c r="G11">
-        <v>0.03098553369300751</v>
+        <v>0.03098676293622142</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -915,10 +915,10 @@
         <v>238849</v>
       </c>
       <c r="F12">
-        <v>238795</v>
+        <v>238780</v>
       </c>
       <c r="G12">
-        <v>0.01012584015578216</v>
+        <v>0.01012647625429265</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -936,10 +936,10 @@
         <v>107108</v>
       </c>
       <c r="F13">
-        <v>107100</v>
+        <v>107096</v>
       </c>
       <c r="G13">
-        <v>0.02319327731092437</v>
+        <v>0.02319414357212221</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -959,10 +959,10 @@
         <v>320717</v>
       </c>
       <c r="F14">
-        <v>320355</v>
+        <v>320349</v>
       </c>
       <c r="G14">
-        <v>0.0323079084141031</v>
+        <v>0.03230851352743414</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -980,10 +980,10 @@
         <v>178828</v>
       </c>
       <c r="F15">
-        <v>178779</v>
+        <v>178776</v>
       </c>
       <c r="G15">
-        <v>0.01115343524686904</v>
+        <v>0.01115362241016691</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1024,10 +1024,10 @@
         <v>309718</v>
       </c>
       <c r="F17">
-        <v>309470</v>
+        <v>309462</v>
       </c>
       <c r="G17">
-        <v>0.03752544673150871</v>
+        <v>0.03752641681369603</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1089,10 +1089,10 @@
         <v>393723</v>
       </c>
       <c r="F20">
-        <v>393544</v>
+        <v>393540</v>
       </c>
       <c r="G20">
-        <v>0.03504817758624194</v>
+        <v>0.03504853382121258</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1110,10 +1110,10 @@
         <v>341668</v>
       </c>
       <c r="F21">
-        <v>341615</v>
+        <v>341609</v>
       </c>
       <c r="G21">
-        <v>0.01276290561011665</v>
+        <v>0.01276312977702578</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1154,10 +1154,10 @@
         <v>247632</v>
       </c>
       <c r="F23">
-        <v>247417</v>
+        <v>247416</v>
       </c>
       <c r="G23">
-        <v>0.03920102499019874</v>
+        <v>0.03920118343195266</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1175,10 +1175,10 @@
         <v>194996</v>
       </c>
       <c r="F24">
-        <v>194948</v>
+        <v>194942</v>
       </c>
       <c r="G24">
-        <v>0.01062334571270288</v>
+        <v>0.0106236726821311</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1219,10 +1219,10 @@
         <v>287837</v>
       </c>
       <c r="F26">
-        <v>287558</v>
+        <v>287557</v>
       </c>
       <c r="G26">
-        <v>0.03365929655930282</v>
+        <v>0.03365941361190999</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1240,10 +1240,10 @@
         <v>304832</v>
       </c>
       <c r="F27">
-        <v>304790</v>
+        <v>304788</v>
       </c>
       <c r="G27">
-        <v>0.01195577282719249</v>
+        <v>0.01195585128023413</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1284,10 +1284,10 @@
         <v>567510</v>
       </c>
       <c r="F29">
-        <v>566769</v>
+        <v>566765</v>
       </c>
       <c r="G29">
-        <v>0.03329045872304237</v>
+        <v>0.03329069367374485</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1305,10 +1305,10 @@
         <v>429864</v>
       </c>
       <c r="F30">
-        <v>429785</v>
+        <v>429777</v>
       </c>
       <c r="G30">
-        <v>0.009958467605895971</v>
+        <v>0.009958652975845613</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1326,10 +1326,10 @@
         <v>299239</v>
       </c>
       <c r="F31">
-        <v>299229</v>
+        <v>299227</v>
       </c>
       <c r="G31">
-        <v>0.02413201928957421</v>
+        <v>0.02413218058530815</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1349,10 +1349,10 @@
         <v>526330</v>
       </c>
       <c r="F32">
-        <v>525887</v>
+        <v>525883</v>
       </c>
       <c r="G32">
-        <v>0.03456255811609719</v>
+        <v>0.03456282100771464</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1370,10 +1370,10 @@
         <v>409796</v>
       </c>
       <c r="F33">
-        <v>409727</v>
+        <v>409723</v>
       </c>
       <c r="G33">
-        <v>0.01321123577406419</v>
+        <v>0.01321136475130759</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1391,10 +1391,10 @@
         <v>228513</v>
       </c>
       <c r="F34">
-        <v>228509</v>
+        <v>228507</v>
       </c>
       <c r="G34">
-        <v>0.02100573719197056</v>
+        <v>0.02100592104399428</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1414,10 +1414,10 @@
         <v>554940</v>
       </c>
       <c r="F35">
-        <v>554362</v>
+        <v>554356</v>
       </c>
       <c r="G35">
-        <v>0.03494106738917891</v>
+        <v>0.03494144556927317</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1435,10 +1435,10 @@
         <v>526481</v>
       </c>
       <c r="F36">
-        <v>526406</v>
+        <v>526397</v>
       </c>
       <c r="G36">
-        <v>0.01408038662173304</v>
+        <v>0.01408062735919847</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1456,10 +1456,10 @@
         <v>307413</v>
       </c>
       <c r="F37">
-        <v>307409</v>
+        <v>307407</v>
       </c>
       <c r="G37">
-        <v>0.0252302307349492</v>
+        <v>0.02523039488365587</v>
       </c>
     </row>
   </sheetData>
@@ -1562,16 +1562,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1388177</v>
+        <v>1388160</v>
       </c>
       <c r="C5">
-        <v>1164123</v>
+        <v>1164113</v>
       </c>
       <c r="D5">
-        <v>224054</v>
+        <v>224047</v>
       </c>
       <c r="E5">
-        <v>0.1924659164023046</v>
+        <v>0.192461556567103</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1579,16 +1579,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02488011255048888</v>
+        <v>0.02488041724296911</v>
       </c>
       <c r="C6">
-        <v>0.02438659832337305</v>
+        <v>0.02438680780989474</v>
       </c>
       <c r="D6">
-        <v>0.0004935142271158335</v>
+        <v>0.0004936094330743636</v>
       </c>
       <c r="E6">
-        <v>0.02023710812683664</v>
+        <v>0.02024083828118273</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1655,10 +1655,10 @@
         <v>1224.488181818182</v>
       </c>
       <c r="E2">
-        <v>1412.352570828961</v>
+        <v>1439.516577540107</v>
       </c>
       <c r="F2">
-        <v>0.02047196780805652</v>
+        <v>0.02008565709819399</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1675,10 +1675,10 @@
         <v>1216.729422894986</v>
       </c>
       <c r="E3">
-        <v>1397.301086956522</v>
+        <v>1418.866445916115</v>
       </c>
       <c r="F3">
-        <v>0.02052341410453763</v>
+        <v>0.02021147862004249</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1695,10 +1695,10 @@
         <v>1424.319090909091</v>
       </c>
       <c r="E4">
-        <v>1653.814149947202</v>
+        <v>1676.806209850107</v>
       </c>
       <c r="F4">
-        <v>0.01929918953002772</v>
+        <v>0.01903456257484034</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1715,10 +1715,10 @@
         <v>1436.522644927536</v>
       </c>
       <c r="E5">
-        <v>1653.127215849844</v>
+        <v>1674.064413938754</v>
       </c>
       <c r="F5">
-        <v>0.02025092488435843</v>
+        <v>0.01999765050479625</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1735,10 +1735,10 @@
         <v>1393.458598726115</v>
       </c>
       <c r="E6">
-        <v>1590.919958419958</v>
+        <v>1611.001052631579</v>
       </c>
       <c r="F6">
-        <v>0.02112591834306859</v>
+        <v>0.02086258421559476</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1755,10 +1755,10 @@
         <v>1435.692441355343</v>
       </c>
       <c r="E7">
-        <v>1648.50499001996</v>
+        <v>1668.475757575758</v>
       </c>
       <c r="F7">
-        <v>0.02298162113242555</v>
+        <v>0.02270654334864167</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1775,10 +1775,10 @@
         <v>1290.585930543188</v>
       </c>
       <c r="E8">
-        <v>1501.227979274611</v>
+        <v>1529.738120380148</v>
       </c>
       <c r="F8">
-        <v>0.02071738219090706</v>
+        <v>0.02033126676256609</v>
       </c>
     </row>
   </sheetData>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">

--- a/python_worksheets.xlsx
+++ b/python_worksheets.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="63">
   <si>
     <t>transactions</t>
   </si>
@@ -133,15 +133,15 @@
     <t>Chrome</t>
   </si>
   <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>Internet Explorer</t>
+  </si>
+  <si>
     <t>Safari (in-app)</t>
   </si>
   <si>
-    <t>Firefox</t>
-  </si>
-  <si>
-    <t>Internet Explorer</t>
-  </si>
-  <si>
     <t>Edge</t>
   </si>
   <si>
@@ -181,121 +181,31 @@
     <t>Mozilla</t>
   </si>
   <si>
+    <t>Maxthon</t>
+  </si>
+  <si>
     <t>UC Browser</t>
   </si>
   <si>
-    <t>Maxthon</t>
-  </si>
-  <si>
     <t>YaBrowser</t>
   </si>
   <si>
     <t>osee2unifiedRelease</t>
   </si>
   <si>
+    <t>Coc Coc</t>
+  </si>
+  <si>
+    <t>(not set)</t>
+  </si>
+  <si>
     <t>Puffin</t>
   </si>
   <si>
-    <t>(not set)</t>
-  </si>
-  <si>
-    <t>Coc Coc</t>
-  </si>
-  <si>
     <t>Iron</t>
   </si>
   <si>
     <t>BrowserNG</t>
-  </si>
-  <si>
-    <t>DDG-Android-3.1.1</t>
-  </si>
-  <si>
-    <t>MRCHROME</t>
-  </si>
-  <si>
-    <t>Truefitbot</t>
-  </si>
-  <si>
-    <t>NokiaC7-00</t>
-  </si>
-  <si>
-    <t>NokiaE52-1</t>
-  </si>
-  <si>
-    <t>Seznam</t>
-  </si>
-  <si>
-    <t>LG-C410</t>
-  </si>
-  <si>
-    <t>YelpWebView</t>
-  </si>
-  <si>
-    <t>TimesTablet</t>
-  </si>
-  <si>
-    <t>NetFront</t>
-  </si>
-  <si>
-    <t>SonyEricssonK700c</t>
-  </si>
-  <si>
-    <t>DDG-Android-3.0.11</t>
-  </si>
-  <si>
-    <t>DDG-Android-3.0.14</t>
-  </si>
-  <si>
-    <t>Python-urllib</t>
-  </si>
-  <si>
-    <t>FeeddlerPro</t>
-  </si>
-  <si>
-    <t>Nokia Browser</t>
-  </si>
-  <si>
-    <t>Nintendo Browser</t>
-  </si>
-  <si>
-    <t>Job Search</t>
-  </si>
-  <si>
-    <t>HubSpot inbound link reporting check</t>
-  </si>
-  <si>
-    <t>NetNewsWire Browser</t>
-  </si>
-  <si>
-    <t>IE with Chrome Frame</t>
-  </si>
-  <si>
-    <t>Chromeless 1.2.0</t>
-  </si>
-  <si>
-    <t>X-WebBrowser</t>
-  </si>
-  <si>
-    <t>anonymous</t>
-  </si>
-  <si>
-    <t>DDG-Android-3.0.17</t>
-  </si>
-  <si>
-    <t>Playstation 3</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Apple-iPhone7C2</t>
-  </si>
-  <si>
-    <t>Amazon.com</t>
-  </si>
-  <si>
-    <t>turnaround</t>
   </si>
 </sst>
 </file>
@@ -1788,1152 +1698,1206 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
-        <v>140847</v>
+      <c r="B2" t="s">
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>263776</v>
+        <v>2663112</v>
       </c>
       <c r="D2">
-        <v>5952256</v>
+        <v>36153</v>
       </c>
       <c r="E2">
-        <v>0.02366279272934498</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>64145</v>
+      </c>
+      <c r="F2">
+        <v>0.01357547110298027</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3">
-        <v>66247</v>
+      <c r="B3" t="s">
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>125468</v>
+        <v>1954932</v>
       </c>
       <c r="D3">
-        <v>2527254</v>
+        <v>59833</v>
       </c>
       <c r="E3">
-        <v>0.02621303596710105</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>114014</v>
+      </c>
+      <c r="F3">
+        <v>0.03060617965228458</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>1894864</v>
+      </c>
+      <c r="D4">
+        <v>47324</v>
+      </c>
+      <c r="E4">
+        <v>87834</v>
+      </c>
+      <c r="F4">
+        <v>0.02497487946364488</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>1394280</v>
+      </c>
+      <c r="D5">
+        <v>57370</v>
+      </c>
+      <c r="E5">
+        <v>111797</v>
+      </c>
+      <c r="F5">
+        <v>0.04114668502739766</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4">
-        <v>3046</v>
-      </c>
-      <c r="C4">
-        <v>5113</v>
-      </c>
-      <c r="D4">
-        <v>518573</v>
-      </c>
-      <c r="E4">
-        <v>0.005873811401673438</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>489450</v>
+      </c>
+      <c r="D6">
+        <v>17313</v>
+      </c>
+      <c r="E6">
+        <v>31158</v>
+      </c>
+      <c r="F6">
+        <v>0.0353723567269384</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>458945</v>
+      </c>
+      <c r="D7">
+        <v>4130</v>
+      </c>
+      <c r="E7">
+        <v>7229</v>
+      </c>
+      <c r="F7">
+        <v>0.008998899650284893</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5">
-        <v>17376</v>
-      </c>
-      <c r="C5">
-        <v>31279</v>
-      </c>
-      <c r="D5">
-        <v>495779</v>
-      </c>
-      <c r="E5">
-        <v>0.03504787415360473</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>416559</v>
+      </c>
+      <c r="D8">
+        <v>12443</v>
+      </c>
+      <c r="E8">
+        <v>9463</v>
+      </c>
+      <c r="F8">
+        <v>0.02987091864537797</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B6">
-        <v>14373</v>
-      </c>
-      <c r="C6">
-        <v>11016</v>
-      </c>
-      <c r="D6">
-        <v>469325</v>
-      </c>
-      <c r="E6">
-        <v>0.0306248335375273</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>335474</v>
+      </c>
+      <c r="D9">
+        <v>1573</v>
+      </c>
+      <c r="E9">
+        <v>2622</v>
+      </c>
+      <c r="F9">
+        <v>0.004688887961511175</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B7">
-        <v>6338</v>
-      </c>
-      <c r="C7">
-        <v>11814</v>
-      </c>
-      <c r="D7">
-        <v>246329</v>
-      </c>
-      <c r="E7">
-        <v>0.0257298166273561</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>244925</v>
+      </c>
+      <c r="D10">
+        <v>6334</v>
+      </c>
+      <c r="E10">
+        <v>11801</v>
+      </c>
+      <c r="F10">
+        <v>0.02586097785036236</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>183040</v>
+      </c>
+      <c r="D11">
+        <v>1473</v>
+      </c>
+      <c r="E11">
+        <v>2491</v>
+      </c>
+      <c r="F11">
+        <v>0.008047421328671329</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>113377</v>
+      </c>
+      <c r="D12">
+        <v>2284</v>
+      </c>
+      <c r="E12">
+        <v>4225</v>
+      </c>
+      <c r="F12">
+        <v>0.02014517935736525</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B8">
-        <v>289</v>
-      </c>
-      <c r="C8">
-        <v>406</v>
-      </c>
-      <c r="D8">
-        <v>98408</v>
-      </c>
-      <c r="E8">
-        <v>0.002936753109503293</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>91733</v>
+      </c>
+      <c r="D13">
+        <v>247</v>
+      </c>
+      <c r="E13">
+        <v>359</v>
+      </c>
+      <c r="F13">
+        <v>0.002692596993448377</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B9">
-        <v>456</v>
-      </c>
-      <c r="C9">
-        <v>774</v>
-      </c>
-      <c r="D9">
-        <v>56632</v>
-      </c>
-      <c r="E9">
-        <v>0.008051984743607854</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>51290</v>
+      </c>
+      <c r="D14">
+        <v>376</v>
+      </c>
+      <c r="E14">
+        <v>659</v>
+      </c>
+      <c r="F14">
+        <v>0.007330863716124001</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>37640</v>
+      </c>
+      <c r="D15">
+        <v>1628</v>
+      </c>
+      <c r="E15">
+        <v>840</v>
+      </c>
+      <c r="F15">
+        <v>0.0432518597236982</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B10">
-        <v>524</v>
-      </c>
-      <c r="C10">
-        <v>836</v>
-      </c>
-      <c r="D10">
-        <v>35379</v>
-      </c>
-      <c r="E10">
-        <v>0.01481104610079426</v>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>34535</v>
+      </c>
+      <c r="D16">
+        <v>513</v>
+      </c>
+      <c r="E16">
+        <v>813</v>
+      </c>
+      <c r="F16">
+        <v>0.01485449543940929</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>15126</v>
+      </c>
+      <c r="D17">
+        <v>302</v>
+      </c>
+      <c r="E17">
+        <v>713</v>
+      </c>
+      <c r="F17">
+        <v>0.01996562210762925</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>6666</v>
+      </c>
+      <c r="D18">
+        <v>42</v>
+      </c>
+      <c r="E18">
+        <v>47</v>
+      </c>
+      <c r="F18">
+        <v>0.0063006300630063</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>6203</v>
+      </c>
+      <c r="D19">
+        <v>63</v>
+      </c>
+      <c r="E19">
+        <v>120</v>
+      </c>
+      <c r="F19">
+        <v>0.01015637594712236</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>5300</v>
+      </c>
+      <c r="D20">
+        <v>80</v>
+      </c>
+      <c r="E20">
+        <v>115</v>
+      </c>
+      <c r="F20">
+        <v>0.01509433962264151</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B11">
-        <v>100</v>
-      </c>
-      <c r="C11">
-        <v>227</v>
-      </c>
-      <c r="D11">
-        <v>5695</v>
-      </c>
-      <c r="E11">
-        <v>0.01755926251097454</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>5167</v>
+      </c>
+      <c r="D21">
+        <v>99</v>
+      </c>
+      <c r="E21">
+        <v>216</v>
+      </c>
+      <c r="F21">
+        <v>0.01916005419005225</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B12">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>2850</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>0.0007017543859649122</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>2359</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>2303</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>0.00303951367781155</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>1225</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>1201</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.001665278934221482</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>1015</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>0.003940886699507389</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>830</v>
+      </c>
+      <c r="D28">
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <v>23</v>
+      </c>
+      <c r="F28">
+        <v>0.01325301204819277</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>829</v>
+      </c>
+      <c r="D29">
+        <v>29</v>
+      </c>
+      <c r="E29">
+        <v>86</v>
+      </c>
+      <c r="F29">
+        <v>0.03498190591073583</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>491</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>385</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>371</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>0.008086253369272238</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>367</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34">
+        <v>252</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.0119047619047619</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>246</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.008130081300813009</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36">
+        <v>203</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <v>0.009852216748768473</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37">
+        <v>161</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>0.006211180124223602</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38">
+        <v>153</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
         <v>6</v>
       </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>3865</v>
-      </c>
-      <c r="E12">
-        <v>0.001552393272962484</v>
-      </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
+      <c r="F38">
+        <v>0.03267973856209151</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39">
+        <v>126</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>124</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41">
+        <v>101</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>78</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>62</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44">
+        <v>59</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45">
+        <v>57</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46">
         <v>47</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>2359</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>2319</v>
-      </c>
-      <c r="E14">
-        <v>0.00301854247520483</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>1225</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16">
-        <v>29</v>
-      </c>
-      <c r="C16">
-        <v>86</v>
-      </c>
-      <c r="D16">
-        <v>829</v>
-      </c>
-      <c r="E16">
-        <v>0.03498190591073583</v>
-      </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>491</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>387</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>372</v>
-      </c>
-      <c r="E19">
-        <v>0.008064516129032258</v>
-      </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>272</v>
-      </c>
-      <c r="E20">
-        <v>0.007352941176470588</v>
-      </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>255</v>
-      </c>
-      <c r="E21">
-        <v>0.01176470588235294</v>
-      </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>0.0851063829787234</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <v>42</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48">
+        <v>39</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>6</v>
-      </c>
-      <c r="D22">
-        <v>208</v>
-      </c>
-      <c r="E22">
-        <v>0.02403846153846154</v>
-      </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>133</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>131</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>117</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>101</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1" t="s">
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49">
+        <v>34</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50">
+        <v>28</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51">
+        <v>21</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27">
-        <v>71</v>
-      </c>
-      <c r="E27">
-        <v>0.05633802816901409</v>
-      </c>
-      <c r="F27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>28</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>18</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>17</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>17</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>13</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>12</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>6</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>4</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>4</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
+      <c r="B52" t="s">
+        <v>21</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="F53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="F54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="F55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="F56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="F57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="F58" t="b">
-        <v>0</v>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
